--- a/meta/11-5-2.xlsx
+++ b/meta/11-5-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>1. Информация об индикаторе</t>
   </si>
@@ -103,55 +103,115 @@
     <t>11.5.2 Прямые экономические потери в процентном отношении к общемировому ВВП, ущерб важнейшим объектам инфраструктуры и число обусловленных бедствиями сбоев в работе основных служб</t>
   </si>
   <si>
-    <t xml:space="preserve">Национальный статистический комитет КР (Управление статистики устойчивого развития и окружающей среды) </t>
-  </si>
-  <si>
-    <t>Керималиева Н.К</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdg_nsc@stat.kg </t>
-  </si>
-  <si>
-    <t>(0312) 32 46 91</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
-    <t>Прямые экономические потери: денежная стоимость полного или частичного устранения причиненных физических нарушений в пострадавшем районе. Прямые экономические потери почти эквивалентны физическому ущербу.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЧС ежегодно предоставляет информацию в сводном виде по форме государственной статистической отчетности №1-ЧС </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Предприятия и организации, органы местного самоуправления, города районного значения, представляют в местную государственную администрацию и районные отделы МЧС, далее в управления МЧС областей и города Бишкек, далее в МЧС КР. </t>
-  </si>
-  <si>
-    <t>Он будет рассчитываться как сумма прямых экономических потерь на страну, деленная на общий глобальный ВВП.</t>
-  </si>
-  <si>
-    <t>Данные о потерях в результате стихийных бедствий существенно зависят от крупномасштабных катастрофических событий, которые представляют собой исключение. МСУОБ ООН рекомендует странам сообщать данные о таких событиях, чтобы иметь возможность проводить анализ как с включением, так и исключением катастрофических событий, представляющих собой исключения.</t>
-  </si>
-  <si>
-    <t>В базе данных Кыргызской Республики по потерям от бедствий обычно регистрируется стоимость физического ущерба (потеря единицы жилья, потеря инфраструктуры и т. д.), которая нуждается в преобразовании в денежную оценку в соответствии с методологией МСУОБ ООН. Преобразованное значение делится на ВВП (с поправкой на инфляцию, в постоянных ценах долл. США)</t>
-  </si>
-  <si>
-    <t>На республиканском уровне</t>
-  </si>
-  <si>
-    <t>Национальная платформа отчётности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+    <t xml:space="preserve">Министерство чрезвычайных ситуаций КР, Национальный статистический комитет КР (Управление статистики устойчивого развития и окружающей среды) </t>
+  </si>
+  <si>
+    <t>МЧС: Кадырова Г.Б. / Мамбетов А.М.; НСК: Керималиева Н.К</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЧС: k-gulshat-b@mail.ru ; НСК: Sdg_nsc@stat.kg </t>
+  </si>
+  <si>
+    <t>МЧС: (0312) 56-86-32; НСК: (0312) 32 46 91</t>
+  </si>
+  <si>
+    <t>МЧС: http://ru.mes.kg/ ; НСК: www.stat.kg</t>
+  </si>
+  <si>
+    <t>Прямые экономические потери: денежная стоимость полного или частичного устранения причиненных физических нарушений в пострадавшем районе. Прямые экономические потери почти эквивалентны физическому ущербу.
+Межправительственная рабочая группа экспертов открытого состава по показателям и терминологии, связанным с уменьшением опасности от бедствий, созданная Генеральной Ассамблеей (резолюция 69/284), разработала набор показателей для оценки глобального прогресса в осуществлении Сэндайской рамочной программы. Эти индикаторы в конечном итоге будут отражать соглашения по показателям Сэндайской рамочной программы.
+Задача С - снижение прямых экономических потерь в отношении мирового валового внутреннего продукта (ВВП) к 2030 году (Сендайская рамочная программа СРБ).
+С-1 - Прямые экономические потери, связанные с бедствиями в отношении мирового валового внутреннего продукта (составной показатель)
+С-2 - Прямые потери в сельском хозяйстве, связанные с бедствиями
+С-3 - Прямые экономические потери всех других поврежденных или разрушенных производственных активов, связанных с бедствиями
+С-4 - Прямые экономические потери в жилищном секторе, связанные с бедствиями
+С-5 - Прямые экономические потери в результате повреждения или разрушения важнейших объектов инфраструктуры в результате бедствий
+С-6 - Прямые экономические потери в связи с повреждением или разрушением культурного наследия в результате бедствий</t>
+  </si>
+  <si>
+    <t>Ключевые термины
+ Экономические потери: Общее экономическое воздействие, которое состоит из прямых экономических потерь и косвенных экономических потерь.
+Прямые экономические потери: денежная стоимость полного или частичного разрушения материальных активов, существующих в зоне поражения. Прямые экономические потери почти эквивалентны физическому ущербу.
+Косвенные экономические потери: снижение экономической добавленной стоимости в результате прямых экономических потерь и/или воздействия на человека и окружающую среду.
+Примечание:
+Примерами физических активов, которые являются основой для расчета прямых экономических потерь, являются дома, школы, больницы, коммерческие и государственные здания, транспорт, энергетика, телекоммуникационная инфраструктура и другая инфраструктура; коммерческие активы и промышленные предприятия; производство, например, сельскохозяйственные культуры, животноводство и производственная инфраструктура. Они могут также включать природные богатства и культурное наследие.
+Восстановительная стоимость: стоимость замены поврежденных активов материалами подобного вида и качества.</t>
+  </si>
+  <si>
+    <t>На данные об ущербе от катастроф существенное влияние оказывают крупномасштабные катастрофические события, которые представляют собой серьезные последствия. МСУОБ ООН рекомендует странам сообщать данные о событиях, чтобы дополнительный анализ мог быть осуществлен путем включения и исключения таких катастрофических событий, которые могут представлять серьезные последствия.</t>
+  </si>
+  <si>
+    <t>МЧС КР, комиссии по гражданской защите, Национальный статистический комитет КР, система онлайн мониторинга Сендайской рамочной программы https://sendaicommitments.unisdr.org</t>
+  </si>
+  <si>
+    <t>Основными органами, устанавливающими факт возникновения ЧС с указанием вида, масштаба и характера ущерба от ЧС являются, Комиссии по Гражданской защите районов, городов. Структура и состав комиссий по ГЗ могут быть разными и включаются все заинтересованные государственные органы, службы по ГЗ, крупные организации, ОМСУ, представители учреждений, предприятий в зависимости от угроз возникновения ЧС. Комиссии по Гражданской защите районов, городов после каждого ЧС определяет и устанавливает нанесенный ущерб. 
+Комиссионный метод оценки ущерба начинается также с момента возникновения ЧС, носит объемный характер, учитывающий все обстоятельства и характер произошедшего вида ЧС. Имеется типовой акт комиссии по Гражданской защите. Время, отведенное на работу комиссии, параметры измерений не ограничены, длительны и акты комиссии по Гражданской защите наиболее информативны в вопросах ущерба. Все данные об ущербе из типового акта комиссии по гражданской защите переносятся в государственную статистическую форму отчетности №1-ЧС и обобщаются на национальном уровне в МЧС КР (2 раза в год) и передаются в Национальный статистический комитет КР один раз в год 20 февраля (начиная с 2018 года).</t>
+  </si>
+  <si>
+    <t>Краткое резюме
+В оригинальных национальных базах данных об авариях обычно регистрируется стоимость физического ущерба (потеря единицы жилья, потеря инфраструктуры и т. д.), которая нуждается в преобразовании в денежную оценку в соответствии с методологией МСУОБ ООН. Конвертированное глобальное значение делится на глобальный ВВП (с поправкой на инфляцию, в постоянных ценах, в долларах США), рассчитанный на основе показателей развития Всемирного банка. В Республике введен в действие порядок оценки ущерба в ЧС, постановлением Правительства КР от 11 ноября 2019 года № 576. 
+Методика расчета по Сендайской программе:
+Расчет С1 – прямые экономические потери в результате опасных происшествий относительно мирового валового внутреннего продукта:
+Расчет: С1 = (C2+C3+C4+C5+C6)
+                         ВВП
+Расчет С-2 – Прямые сельскохозяйственные потери, связанные с бедствиями, суммирование:
+• С-2С: Прямые потери урожая
+• C-2L: Прямые потери скота 
+• C-2FO: Прямые потери в лесном хозяйстве
+• C-2A: Прямые потери в аквакультуре
+• C-2FI: Прямые потери в рыбном хозяйстве
+Методика оценки ущерба в сельскохозяйственном секторе, лесном хозяйстве разработана ФАО и планируется введение в Кыргызской Республике в 2020 году.
+Расчеты по показателям С-3, С-4, С-5, С-6 осуществляются в соответствии с имеющимися отраслевыми методиками. В настоящее время при оценке ущерба руководствуются «Порядком оценки ущерба в ЧС», утвержденным постановлением Правительства КР от 11 ноября 2019 года №576. До принятия Порядка, руководствовались Методическим руководством по оценке ущерба, убытков и потребностей по реконструкции и восстановлению от ЧС в Кыргызской Республике», одобренным на заседании межведомственной комиссии Гражданской защиты в 2013 г.
+Последнюю версию методологии расчета по Сендайской программе СРБ (техническое руководство) можно получить по адресу:
+http://www.preventionweb.net/documents/oiewg/Technical%20Collection%20of%20Concept%20Notes%20on%20Indicators.pdf</t>
+  </si>
+  <si>
+    <t>Не во всех странах имеется сопоставимая национальная база данных о потерях от стихийных бедствий, которая согласуется с этими руководящими принципами (хотя нынешний охват превышает 89 стран). Поэтому к 2020 году ожидается, что все страны будут создавать / корректировать национальные базы данных о стихийных бедствиях в соответствии с рекомендациями и руководящими принципами Межправительственной рабочей группы экспертов открытого состава по показателям и терминологии, касающимся уменьшения риска бедствий.
+Источники расхождений.
+Международные источники данных записывают только события, которые превышают некоторый порог воздействия. Эти источники данных обычно имеют неравномерные или даже непоследовательные методологии, создающие разнородные наборы данных. Наблюдение (данные на национальном уровне более полные): международные сборщики данных из-за ограничений доступа к информации не регистрируют большое количество событий, которые не публикуются на международном уровне или никогда не «видны» из используемых вторичных источников данных.
+В Кыргызской Республике подсчет количества, видов, степени тяжести чрезвычайных ситуаций определяется в соответствие с «Классификацией ЧС и критериев их оценки», утвержденной постановлением Правительства КР №550 от 22 ноября 2018 года, главными признаками которого является нанесенный ущерб, количество погибших и количество населения с нарушенной жизнедеятельностью.</t>
+  </si>
+  <si>
+    <t>Информация формируется из актов комиссий по ГЗ, перетекающие в формы государственной статистической отчетности №1-ЧС.
+МЧС КР как государственный орган представляет данные в Нацстатком КР по государственной статистической форме отчетности №1-ЧС с февраля 2018 г. 
+Страны представляют отчетные данные в систему онлайн мониторинга Сендайской рамочной программы. Заполнение данных проходит 3 уровня (автор, валидатор, национальный координатор), все данные отображаются в онлайн режиме на сайте мониторинга Сендайской рамочной программы https://sendaicommitments.unisdr.org.</t>
+  </si>
+  <si>
+    <t>Отчетность по показателю представляется МЧС КР в Нацстатком КР по Матрице инвентаризации и адаптации задач и показателей Целей устойчивого развития, а также по форме №1-ЧС. Данные представлены на сайте НСК КР, http://www.stat.kg/ru/, раздел ЦУР, Матрица инвентаризации и адаптации задач и показателей Целей устойчивого развития и раздел отчетность, Экологическая статистика.    
+В онлайн режиме на сайте мониторинга Сендая. https://sendaicommitments.unisdr.org 
+Примечание:
+До введения государственной статистической формы отчетности №1-ЧС, были данные во временных рядах: с 1990 по 2013, и до 2017 года: Национальная база данных об авариях, то есть в Национальной базе данных об авариях недостающие значения и 0 или пустые значения считались ранее эквивалентными. 
+В настоящее время данные по ущербу в соотношении к ВВП доступны на сайте НСК КР в разделе ЦУР, динамические таблицы по показателю 11.5.2. Прямые экономические потери в процентном отношении к общемировому ВВП, ущерб важнейшим объектам инфраструктуры и число обусловленных бедствиями сбоев в работе основных служб</t>
+  </si>
+  <si>
+    <t>На национальном и суб-национальном уровне</t>
+  </si>
+  <si>
+    <t>Данные сопоставимы и представляются данные в систему онлайн мониторинга Сендайской рамочной программы.</t>
+  </si>
+  <si>
+    <t>Сайт МЧС КР, http://ru.mes.kg/
+Сайт НСК КР, http://www.stat.kg/ru/, раздел отчетность, Экологическая статистика, Форма № 1-ЧС. Национальная платформа отчётности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,30 +278,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -552,7 +612,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +632,7 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -580,7 +640,7 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -588,7 +648,7 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -602,7 +662,7 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -610,7 +670,7 @@
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -618,7 +678,7 @@
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -626,7 +686,7 @@
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -634,7 +694,7 @@
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -644,25 +704,29 @@
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="377.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="302.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -674,16 +738,16 @@
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="300.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>36</v>
+      <c r="B17" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -692,28 +756,28 @@
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="390.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="376.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>39</v>
+      <c r="B21" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -722,32 +786,36 @@
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="316.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>40</v>
+      <c r="B24" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>41</v>
+      <c r="B26" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/meta/11-5-2.xlsx
+++ b/meta/11-5-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>1. Информация об индикаторе</t>
   </si>
@@ -100,98 +100,46 @@
     <t xml:space="preserve">11.5 К 2030 году существенно сократить число погибших и пострадавших и значительно уменьшить прямой экономический ущерб в виде потерь мирового валового внутреннего продукта в результате бедствий, в том числе связанных с водой, уделяя особое внимание защите малоимущих и уязвимых групп населения </t>
   </si>
   <si>
-    <t>11.5.2 Прямые экономические потери в процентном отношении к общемировому ВВП, ущерб важнейшим объектам инфраструктуры и число обусловленных бедствиями сбоев в работе основных служб</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Министерство чрезвычайных ситуаций КР, Национальный статистический комитет КР (Управление статистики устойчивого развития и окружающей среды) </t>
-  </si>
-  <si>
-    <t>МЧС: Кадырова Г.Б. / Мамбетов А.М.; НСК: Керималиева Н.К</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЧС: k-gulshat-b@mail.ru ; НСК: Sdg_nsc@stat.kg </t>
-  </si>
-  <si>
-    <t>МЧС: (0312) 56-86-32; НСК: (0312) 32 46 91</t>
-  </si>
-  <si>
-    <t>МЧС: http://ru.mes.kg/ ; НСК: www.stat.kg</t>
-  </si>
-  <si>
-    <t>Прямые экономические потери: денежная стоимость полного или частичного устранения причиненных физических нарушений в пострадавшем районе. Прямые экономические потери почти эквивалентны физическому ущербу.
-Межправительственная рабочая группа экспертов открытого состава по показателям и терминологии, связанным с уменьшением опасности от бедствий, созданная Генеральной Ассамблеей (резолюция 69/284), разработала набор показателей для оценки глобального прогресса в осуществлении Сэндайской рамочной программы. Эти индикаторы в конечном итоге будут отражать соглашения по показателям Сэндайской рамочной программы.
-Задача С - снижение прямых экономических потерь в отношении мирового валового внутреннего продукта (ВВП) к 2030 году (Сендайская рамочная программа СРБ).
-С-1 - Прямые экономические потери, связанные с бедствиями в отношении мирового валового внутреннего продукта (составной показатель)
-С-2 - Прямые потери в сельском хозяйстве, связанные с бедствиями
-С-3 - Прямые экономические потери всех других поврежденных или разрушенных производственных активов, связанных с бедствиями
-С-4 - Прямые экономические потери в жилищном секторе, связанные с бедствиями
-С-5 - Прямые экономические потери в результате повреждения или разрушения важнейших объектов инфраструктуры в результате бедствий
-С-6 - Прямые экономические потери в связи с повреждением или разрушением культурного наследия в результате бедствий</t>
-  </si>
-  <si>
-    <t>Ключевые термины
- Экономические потери: Общее экономическое воздействие, которое состоит из прямых экономических потерь и косвенных экономических потерь.
-Прямые экономические потери: денежная стоимость полного или частичного разрушения материальных активов, существующих в зоне поражения. Прямые экономические потери почти эквивалентны физическому ущербу.
-Косвенные экономические потери: снижение экономической добавленной стоимости в результате прямых экономических потерь и/или воздействия на человека и окружающую среду.
-Примечание:
-Примерами физических активов, которые являются основой для расчета прямых экономических потерь, являются дома, школы, больницы, коммерческие и государственные здания, транспорт, энергетика, телекоммуникационная инфраструктура и другая инфраструктура; коммерческие активы и промышленные предприятия; производство, например, сельскохозяйственные культуры, животноводство и производственная инфраструктура. Они могут также включать природные богатства и культурное наследие.
-Восстановительная стоимость: стоимость замены поврежденных активов материалами подобного вида и качества.</t>
-  </si>
-  <si>
-    <t>На данные об ущербе от катастроф существенное влияние оказывают крупномасштабные катастрофические события, которые представляют собой серьезные последствия. МСУОБ ООН рекомендует странам сообщать данные о событиях, чтобы дополнительный анализ мог быть осуществлен путем включения и исключения таких катастрофических событий, которые могут представлять серьезные последствия.</t>
-  </si>
-  <si>
-    <t>МЧС КР, комиссии по гражданской защите, Национальный статистический комитет КР, система онлайн мониторинга Сендайской рамочной программы https://sendaicommitments.unisdr.org</t>
-  </si>
-  <si>
-    <t>Основными органами, устанавливающими факт возникновения ЧС с указанием вида, масштаба и характера ущерба от ЧС являются, Комиссии по Гражданской защите районов, городов. Структура и состав комиссий по ГЗ могут быть разными и включаются все заинтересованные государственные органы, службы по ГЗ, крупные организации, ОМСУ, представители учреждений, предприятий в зависимости от угроз возникновения ЧС. Комиссии по Гражданской защите районов, городов после каждого ЧС определяет и устанавливает нанесенный ущерб. 
-Комиссионный метод оценки ущерба начинается также с момента возникновения ЧС, носит объемный характер, учитывающий все обстоятельства и характер произошедшего вида ЧС. Имеется типовой акт комиссии по Гражданской защите. Время, отведенное на работу комиссии, параметры измерений не ограничены, длительны и акты комиссии по Гражданской защите наиболее информативны в вопросах ущерба. Все данные об ущербе из типового акта комиссии по гражданской защите переносятся в государственную статистическую форму отчетности №1-ЧС и обобщаются на национальном уровне в МЧС КР (2 раза в год) и передаются в Национальный статистический комитет КР один раз в год 20 февраля (начиная с 2018 года).</t>
-  </si>
-  <si>
-    <t>Краткое резюме
-В оригинальных национальных базах данных об авариях обычно регистрируется стоимость физического ущерба (потеря единицы жилья, потеря инфраструктуры и т. д.), которая нуждается в преобразовании в денежную оценку в соответствии с методологией МСУОБ ООН. Конвертированное глобальное значение делится на глобальный ВВП (с поправкой на инфляцию, в постоянных ценах, в долларах США), рассчитанный на основе показателей развития Всемирного банка. В Республике введен в действие порядок оценки ущерба в ЧС, постановлением Правительства КР от 11 ноября 2019 года № 576. 
-Методика расчета по Сендайской программе:
-Расчет С1 – прямые экономические потери в результате опасных происшествий относительно мирового валового внутреннего продукта:
-Расчет: С1 = (C2+C3+C4+C5+C6)
-                         ВВП
-Расчет С-2 – Прямые сельскохозяйственные потери, связанные с бедствиями, суммирование:
-• С-2С: Прямые потери урожая
-• C-2L: Прямые потери скота 
-• C-2FO: Прямые потери в лесном хозяйстве
-• C-2A: Прямые потери в аквакультуре
-• C-2FI: Прямые потери в рыбном хозяйстве
-Методика оценки ущерба в сельскохозяйственном секторе, лесном хозяйстве разработана ФАО и планируется введение в Кыргызской Республике в 2020 году.
-Расчеты по показателям С-3, С-4, С-5, С-6 осуществляются в соответствии с имеющимися отраслевыми методиками. В настоящее время при оценке ущерба руководствуются «Порядком оценки ущерба в ЧС», утвержденным постановлением Правительства КР от 11 ноября 2019 года №576. До принятия Порядка, руководствовались Методическим руководством по оценке ущерба, убытков и потребностей по реконструкции и восстановлению от ЧС в Кыргызской Республике», одобренным на заседании межведомственной комиссии Гражданской защиты в 2013 г.
-Последнюю версию методологии расчета по Сендайской программе СРБ (техническое руководство) можно получить по адресу:
-http://www.preventionweb.net/documents/oiewg/Technical%20Collection%20of%20Concept%20Notes%20on%20Indicators.pdf</t>
-  </si>
-  <si>
-    <t>Не во всех странах имеется сопоставимая национальная база данных о потерях от стихийных бедствий, которая согласуется с этими руководящими принципами (хотя нынешний охват превышает 89 стран). Поэтому к 2020 году ожидается, что все страны будут создавать / корректировать национальные базы данных о стихийных бедствиях в соответствии с рекомендациями и руководящими принципами Межправительственной рабочей группы экспертов открытого состава по показателям и терминологии, касающимся уменьшения риска бедствий.
-Источники расхождений.
-Международные источники данных записывают только события, которые превышают некоторый порог воздействия. Эти источники данных обычно имеют неравномерные или даже непоследовательные методологии, создающие разнородные наборы данных. Наблюдение (данные на национальном уровне более полные): международные сборщики данных из-за ограничений доступа к информации не регистрируют большое количество событий, которые не публикуются на международном уровне или никогда не «видны» из используемых вторичных источников данных.
-В Кыргызской Республике подсчет количества, видов, степени тяжести чрезвычайных ситуаций определяется в соответствие с «Классификацией ЧС и критериев их оценки», утвержденной постановлением Правительства КР №550 от 22 ноября 2018 года, главными признаками которого является нанесенный ущерб, количество погибших и количество населения с нарушенной жизнедеятельностью.</t>
-  </si>
-  <si>
-    <t>Информация формируется из актов комиссий по ГЗ, перетекающие в формы государственной статистической отчетности №1-ЧС.
-МЧС КР как государственный орган представляет данные в Нацстатком КР по государственной статистической форме отчетности №1-ЧС с февраля 2018 г. 
-Страны представляют отчетные данные в систему онлайн мониторинга Сендайской рамочной программы. Заполнение данных проходит 3 уровня (автор, валидатор, национальный координатор), все данные отображаются в онлайн режиме на сайте мониторинга Сендайской рамочной программы https://sendaicommitments.unisdr.org.</t>
-  </si>
-  <si>
-    <t>Отчетность по показателю представляется МЧС КР в Нацстатком КР по Матрице инвентаризации и адаптации задач и показателей Целей устойчивого развития, а также по форме №1-ЧС. Данные представлены на сайте НСК КР, http://www.stat.kg/ru/, раздел ЦУР, Матрица инвентаризации и адаптации задач и показателей Целей устойчивого развития и раздел отчетность, Экологическая статистика.    
-В онлайн режиме на сайте мониторинга Сендая. https://sendaicommitments.unisdr.org 
-Примечание:
-До введения государственной статистической формы отчетности №1-ЧС, были данные во временных рядах: с 1990 по 2013, и до 2017 года: Национальная база данных об авариях, то есть в Национальной базе данных об авариях недостающие значения и 0 или пустые значения считались ранее эквивалентными. 
-В настоящее время данные по ущербу в соотношении к ВВП доступны на сайте НСК КР в разделе ЦУР, динамические таблицы по показателю 11.5.2. Прямые экономические потери в процентном отношении к общемировому ВВП, ущерб важнейшим объектам инфраструктуры и число обусловленных бедствиями сбоев в работе основных служб</t>
-  </si>
-  <si>
-    <t>На национальном и суб-национальном уровне</t>
-  </si>
-  <si>
-    <t>Данные сопоставимы и представляются данные в систему онлайн мониторинга Сендайской рамочной программы.</t>
-  </si>
-  <si>
-    <t>Сайт МЧС КР, http://ru.mes.kg/
-Сайт НСК КР, http://www.stat.kg/ru/, раздел отчетность, Экологическая статистика, Форма № 1-ЧС. Национальная платформа отчётности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+    <t xml:space="preserve">Sdg_nsc@stat.kg </t>
+  </si>
+  <si>
+    <t>Прямые экономические потери: денежная стоимость полного или частичного устранения причиненных физических нарушений в пострадавшем районе. Прямые экономические потери почти эквивалентны физическому ущербу.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЧС ежегодно предоставляет информацию в сводном виде по форме государственной статистической отчетности №1-ЧС </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Предприятия и организации, органы местного самоуправления, города районного значения, представляют в местную государственную администрацию и районные отделы МЧС, далее в управления МЧС областей и города Бишкек, далее в МЧС КР. </t>
+  </si>
+  <si>
+    <t>Он будет рассчитываться как сумма прямых экономических потерь на страну, деленная на общий глобальный ВВП.</t>
+  </si>
+  <si>
+    <t>Данные о потерях в результате стихийных бедствий существенно зависят от крупномасштабных катастрофических событий, которые представляют собой исключение. МСУОБ ООН рекомендует странам сообщать данные о таких событиях, чтобы иметь возможность проводить анализ как с включением, так и исключением катастрофических событий, представляющих собой исключения.</t>
+  </si>
+  <si>
+    <t>В базе данных Кыргызской Республики по потерям от бедствий обычно регистрируется стоимость физического ущерба (потеря единицы жилья, потеря инфраструктуры и т. д.), которая нуждается в преобразовании в денежную оценку в соответствии с методологией МСУОБ ООН. Преобразованное значение делится на ВВП (с поправкой на инфляцию, в постоянных ценах долл. США)</t>
+  </si>
+  <si>
+    <t>На республиканском уровне</t>
+  </si>
+  <si>
+    <t>Национальная платформа отчётности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Национальный статистический комитет КР (Управление цифрового развития и статистики устойчивого развития) </t>
+  </si>
+  <si>
+    <t>Мамбеталиев Т.А.</t>
+  </si>
+  <si>
+    <t>(0312) 62 56 07</t>
+  </si>
+  <si>
+    <t>11.5.2 Прямые экономические потери в процентном отношении к национальному ВВП</t>
   </si>
 </sst>
 </file>
@@ -280,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -291,6 +239,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -612,7 +568,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +588,7 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -640,7 +596,7 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -648,8 +604,8 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
+      <c r="B4" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -662,40 +618,40 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
+      <c r="B6" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>30</v>
+      <c r="B7" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>31</v>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>32</v>
+      <c r="B9" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>33</v>
+      <c r="B10" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -704,29 +660,25 @@
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="377.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="302.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -738,16 +690,16 @@
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="300.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>38</v>
+      <c r="B17" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -756,28 +708,28 @@
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="390.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="376.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>41</v>
+      <c r="B21" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -786,36 +738,32 @@
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" ht="316.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>43</v>
+      <c r="B24" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>45</v>
+      <c r="B26" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
